--- a/cape/database/CAPE I.T Unit 1 data.xlsx
+++ b/cape/database/CAPE I.T Unit 1 data.xlsx
@@ -11,12 +11,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>CAPE IT Unit 1 P1 2019.pdf</t>
+  </si>
+  <si>
+    <t>1yqVc__lfY2GegVIoSX3SC6UCbbrOT0LF</t>
+  </si>
+  <si>
+    <t>CAPE IT Unit 1 P1 2017.pdf</t>
+  </si>
+  <si>
+    <t>15C8WmSAzG9SsNSzre7zzIljnHHpXhQSd</t>
+  </si>
+  <si>
+    <t>CAPE IT Unit 1 P1 2015 and 2016.pdf</t>
+  </si>
+  <si>
+    <t>1M5BZ-k3l0cMkiRRTLV_Z5Mwp7QvZYG6X</t>
+  </si>
+  <si>
+    <t>SOLUTION PAPER 1  2016 UNIT 1.pdf</t>
+  </si>
+  <si>
+    <t>1sygRJ2OcnFtKugzMGIwfUuqx4FiMRYY6</t>
+  </si>
+  <si>
+    <t>SOLUTION PAPER 1   2015  UNIT 1.pdf</t>
+  </si>
+  <si>
+    <t>1L1kriPQmNnIHaQtX9RhI9Uyj_jBqYZ5V</t>
+  </si>
+  <si>
+    <t>CAPE IT Unit 1 P1 2009.pdf</t>
+  </si>
+  <si>
+    <t>1aaWDxk2_QnlHwbfp9xc38NKeNkdCgVpR</t>
+  </si>
+  <si>
+    <t>CAPE IT Unit 1 P1 2018.pdf</t>
+  </si>
+  <si>
+    <t>1lJmyUPC3eq_194XPhxM5FhNhyapgQNaG</t>
+  </si>
+  <si>
+    <t>CAPE IT Unit 1 P1 2011.pdf</t>
+  </si>
+  <si>
+    <t>1dMWXfBgn6QCu0GhQrk9BG6rQxjOSTUbr</t>
+  </si>
+  <si>
+    <t>CAPE® IT Past Papers (Up to 2019).pdf</t>
+  </si>
+  <si>
+    <t>1DjY1Lfb-DPEfUmzJQi18MRm90lV1n0tH</t>
   </si>
 </sst>
 </file>
@@ -281,6 +335,78 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
